--- a/src/test/resources/testdata/excel/testdata.xlsx
+++ b/src/test/resources/testdata/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pon Vignesh\Desktop\Rest\api_testing_framework\src\test\resources\testdata\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pon Vignesh\Desktop\framework\api-testing-framework\src\test\resources\testdata\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CCDDFE-B30C-49F7-879E-312C8C226DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BE587-A622-4ECA-A742-D78F32A836C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/testdata/excel/testdata.xlsx
+++ b/src/test/resources/testdata/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pon Vignesh\Desktop\framework\api-testing-framework\src\test\resources\testdata\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PonVigneshK\Documents\api-testing-framework\src\test\resources\testdata\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BE587-A622-4ECA-A742-D78F32A836C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CEC27-2B29-44B9-AD16-CA6B9DDEB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>testdescription</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>/delete/2</t>
+  </si>
+  <si>
+    <t>statusCode</t>
   </si>
 </sst>
 </file>
@@ -574,20 +577,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -595,79 +598,97 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
